--- a/WebContent/WEB-INF/docs/adviseingsmelding-xml-version2/Message table Notification message v2.0.xlsx
+++ b/WebContent/WEB-INF/docs/adviseingsmelding-xml-version2/Message table Notification message v2.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://edisysno-my.sharepoint.com/personal/are_berg_edisys_no/Documents/Dokumenter OneDrive/Oppdrag/NorStella/Advisering/Dokumentasjon endelig/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="73" documentId="14_{EE8A130B-7EFE-914E-8241-8B14B404D49B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{37EEDDB3-1E8C-594A-93C5-DFEEC697D1B0}"/>
+  <xr:revisionPtr revIDLastSave="87" documentId="14_{EE8A130B-7EFE-914E-8241-8B14B404D49B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0271D55-95A0-8C48-8CCE-7C3453DDE51A}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="2" xr2:uid="{50F96DC2-9C79-44CE-8154-71D8EA9F0AC4}"/>
   </bookViews>
@@ -1936,12 +1936,6 @@
     <t xml:space="preserve">TransportExecutionPlan/cac:Consignment/cbc:GrossWeightMeasure </t>
   </si>
   <si>
-    <t xml:space="preserve">TransportExecutionPlanRequest/cac:Consignment/cbc:TotalTransportHandlingUnitQuantity </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TransportExecutionPlan/cac:Consignment/cbc:TotalTransportHandlingUnitQuantity </t>
-  </si>
-  <si>
     <t>TransportExecutionPlan/cac:Consignment/cac:CustomsDeclaration/cac:AdditionalDocumentReference/cbc:ID and cbc:DocumentType=SequenceNumber</t>
   </si>
   <si>
@@ -1962,6 +1956,12 @@
   </si>
   <si>
     <t>Message identification, UUID</t>
+  </si>
+  <si>
+    <t>TransportExecutionPlan/cac:Consignment/cac:DocumentReference/cbc:ID and cbc:DocumentType=NumberOfPackages</t>
+  </si>
+  <si>
+    <t>TransportExecutionPlanRequest/cac:Consignment/cac:DocumentReference/cbc:ID and cbc:DocumentType=NumberOfPackages</t>
   </si>
 </sst>
 </file>
@@ -3642,7 +3642,7 @@
     </row>
     <row r="3" spans="1:3" s="114" customFormat="1" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="115" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B3" s="116" t="s">
         <v>495</v>
@@ -6758,11 +6758,11 @@
   <dimension ref="A1:Y79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="129" zoomScaleNormal="129" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B36" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="S43" activePane="bottomRight" state="frozenSplit"/>
       <selection sqref="A1:A1048576"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomRight" activeCell="R43" sqref="R43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6787,8 +6787,8 @@
     <col min="18" max="18" width="27.33203125" style="131" customWidth="1"/>
     <col min="19" max="19" width="16.1640625" style="114" customWidth="1"/>
     <col min="20" max="20" width="9.1640625" style="114" customWidth="1"/>
-    <col min="21" max="21" width="45.6640625" style="126" customWidth="1"/>
-    <col min="22" max="22" width="43.83203125" style="126" customWidth="1"/>
+    <col min="21" max="21" width="48" style="126" customWidth="1"/>
+    <col min="22" max="22" width="45.6640625" style="126" customWidth="1"/>
     <col min="23" max="23" width="37.1640625" style="126" customWidth="1"/>
     <col min="24" max="24" width="34" style="114" customWidth="1"/>
     <col min="25" max="25" width="33.83203125" style="114" customWidth="1"/>
@@ -6821,7 +6821,7 @@
       <c r="B4" s="127"/>
       <c r="C4" s="127"/>
       <c r="U4" s="148" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="V4" s="149"/>
       <c r="W4" s="149"/>
@@ -6990,7 +6990,7 @@
         <v>376</v>
       </c>
       <c r="C7" s="62" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D7" s="114" t="s">
         <v>28</v>
@@ -7064,10 +7064,10 @@
         <v>253</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C8" s="63" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D8" s="114" t="s">
         <v>28</v>
@@ -7221,7 +7221,7 @@
         <v>492</v>
       </c>
       <c r="C10" s="64" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D10" s="114" t="s">
         <v>28</v>
@@ -9037,7 +9037,7 @@
       <c r="X40" s="126"/>
       <c r="Y40" s="126"/>
     </row>
-    <row r="41" spans="1:25" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="114" t="s">
         <v>286</v>
       </c>
@@ -9081,10 +9081,10 @@
         <v>258</v>
       </c>
       <c r="U41" s="126" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="V41" s="126" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="X41" s="126"/>
       <c r="Y41" s="126"/>
@@ -10329,7 +10329,7 @@
         <v>251</v>
       </c>
       <c r="V79" s="126" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="X79" s="126"/>
       <c r="Y79" s="126"/>
@@ -10347,6 +10347,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100A7BD15C23A39F34BADC54A3FE082A986" ma:contentTypeVersion="10" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="df23b5267de0689925b32491be1577ab">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="42567f4f-aaa6-43a3-bcd5-b1433f6de776" xmlns:ns3="3d79b2ff-e195-405d-bbe6-19b64ecbf10b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="96990a46d95ab2edc357a3e02a915ed7" ns2:_="" ns3:_="">
     <xsd:import namespace="42567f4f-aaa6-43a3-bcd5-b1433f6de776"/>
@@ -10547,22 +10562,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{626C86AD-A593-4B02-A3D2-C3F4B39DFB5E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCF7EED7-B2F0-4CFA-8703-98F36D9DEEFC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="42567f4f-aaa6-43a3-bcd5-b1433f6de776"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="3d79b2ff-e195-405d-bbe6-19b64ecbf10b"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F1CE705-907F-4833-ADAD-0B82BA10764E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10579,29 +10604,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCF7EED7-B2F0-4CFA-8703-98F36D9DEEFC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3d79b2ff-e195-405d-bbe6-19b64ecbf10b"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="42567f4f-aaa6-43a3-bcd5-b1433f6de776"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{626C86AD-A593-4B02-A3D2-C3F4B39DFB5E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>